--- a/data/trans_camb/P6902-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 1,29</t>
+          <t>-30,31; 0,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 12,65</t>
+          <t>-21,33; 11,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 27,27</t>
+          <t>4,58; 28,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 22,45</t>
+          <t>-12,28; 21,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 11,55</t>
+          <t>-24,83; 12,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 21,8</t>
+          <t>-6,61; 24,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 6,67</t>
+          <t>-17,74; 6,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 8,2</t>
+          <t>-17,34; 8,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 20,95</t>
+          <t>1,74; 20,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 0,4</t>
+          <t>-36,85; 1,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 17,4</t>
+          <t>-25,52; 15,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 40,78</t>
+          <t>5,29; 42,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 35,0</t>
+          <t>-14,24; 33,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 16,97</t>
+          <t>-29,18; 19,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 33,46</t>
+          <t>-7,55; 38,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 9,16</t>
+          <t>-21,89; 8,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 11,12</t>
+          <t>-21,57; 11,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 30,02</t>
+          <t>2,05; 29,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 36,01</t>
+          <t>-9,52; 36,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 27,12</t>
+          <t>-19,54; 27,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 48,92</t>
+          <t>9,71; 47,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 14,27</t>
+          <t>-31,93; 16,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 28,04</t>
+          <t>-15,66; 27,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 30,42</t>
+          <t>-2,68; 30,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 18,51</t>
+          <t>-14,16; 19,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 22,94</t>
+          <t>-9,26; 23,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 36,05</t>
+          <t>7,88; 35,73</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 89,42</t>
+          <t>-14,73; 87,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 61,3</t>
+          <t>-29,73; 69,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 124,24</t>
+          <t>14,58; 115,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 23,34</t>
+          <t>-43,9; 27,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 49,69</t>
+          <t>-18,47; 48,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 55,51</t>
+          <t>-3,52; 54,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 34,51</t>
+          <t>-21,38; 36,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 41,98</t>
+          <t>-14,6; 43,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 73,9</t>
+          <t>11,08; 69,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 4,11</t>
+          <t>-26,95; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,31; -2,24</t>
+          <t>-33,1; -3,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 11,08</t>
+          <t>-22,49; 11,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 47,54</t>
+          <t>-15,79; 45,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 73,29</t>
+          <t>-3,24; 74,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 52,24</t>
+          <t>-10,08; 51,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 7,89</t>
+          <t>-20,22; 8,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 4,78</t>
+          <t>-25,08; 4,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 12,74</t>
+          <t>-18,49; 12,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 9,69</t>
+          <t>-45,63; 8,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,82; -5,6</t>
+          <t>-56,89; -4,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,26; 23,29</t>
+          <t>-39,83; 23,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 660,59</t>
+          <t>-38,25; 410,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 624,63</t>
+          <t>-12,15; 774,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 679,64</t>
+          <t>-23,7; 498,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 18,76</t>
+          <t>-36,25; 20,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 10,89</t>
+          <t>-47,2; 10,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 30,06</t>
+          <t>-32,48; 28,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 21,82</t>
+          <t>-0,37; 22,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 22,9</t>
+          <t>0,54; 23,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 34,24</t>
+          <t>10,67; 34,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 16,03</t>
+          <t>-21,04; 14,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 26,76</t>
+          <t>-9,0; 26,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 30,43</t>
+          <t>0,65; 32,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 20,06</t>
+          <t>-0,59; 18,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 22,76</t>
+          <t>4,05; 22,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,95; 32,25</t>
+          <t>15,33; 32,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 78,97</t>
+          <t>-0,29; 84,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,51; 86,04</t>
+          <t>1,48; 86,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,59; 128,8</t>
+          <t>30,34; 130,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 42,57</t>
+          <t>-35,11; 36,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 75,29</t>
+          <t>-15,43; 70,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 82,06</t>
+          <t>0,85; 92,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 65,08</t>
+          <t>-1,57; 60,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,5; 73,48</t>
+          <t>10,18; 71,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,92; 105,38</t>
+          <t>38,83; 110,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 23,81</t>
+          <t>-15,04; 21,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 16,37</t>
+          <t>-14,48; 15,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,4; 38,92</t>
+          <t>1,76; 40,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 43,73</t>
+          <t>5,82; 44,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 30,23</t>
+          <t>-4,42; 31,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 31,65</t>
+          <t>-19,47; 30,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 29,54</t>
+          <t>0,57; 28,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 16,92</t>
+          <t>-6,35; 16,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 28,8</t>
+          <t>-7,89; 28,32</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 139,08</t>
+          <t>-48,45; 126,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 103,83</t>
+          <t>-44,37; 99,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,96; 240,37</t>
+          <t>4,74; 247,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,34; 234,98</t>
+          <t>16,37; 230,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 156,56</t>
+          <t>-13,09; 155,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 140,26</t>
+          <t>-49,57; 126,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 138,14</t>
+          <t>1,25; 135,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 81,16</t>
+          <t>-19,09; 75,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 123,23</t>
+          <t>-21,61; 124,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,4</t>
+          <t>-3,32; 10,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,24</t>
+          <t>-7,17; 6,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,22; 25,32</t>
+          <t>11,83; 25,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,87</t>
+          <t>-3,15; 15,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,05</t>
+          <t>-1,21; 18,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 19,28</t>
+          <t>-10,04; 18,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,73</t>
+          <t>-0,68; 10,81</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,16</t>
+          <t>-1,91; 9,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,57; 21,24</t>
+          <t>4,98; 21,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 25,86</t>
+          <t>-7,2; 25,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 17,69</t>
+          <t>-15,62; 16,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>22,17; 62,92</t>
+          <t>25,51; 64,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 34,04</t>
+          <t>-5,97; 33,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 40,37</t>
+          <t>-2,09; 39,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 39,84</t>
+          <t>-15,54; 39,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 25,35</t>
+          <t>-1,37; 25,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 23,7</t>
+          <t>-3,76; 22,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,93; 48,86</t>
+          <t>12,08; 48,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
